--- a/biology/Botanique/Helena_Perpenti/Helena_Perpenti.xlsx
+++ b/biology/Botanique/Helena_Perpenti/Helena_Perpenti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helena Perpenti née Maria Candida Medina Coeli (Chiavenna, 1764 - Pianello del Lario, 1846) est une médecin, biologiste et botaniste italienne[1],[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helena Perpenti née Maria Candida Medina Coeli (Chiavenna, 1764 - Pianello del Lario, 1846) est une médecin, biologiste et botaniste italienne,. 
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née d'un famille de haut rang de la ville de Chiavenna, Maria Candida Medina Coeli s'intéresse à la médecine dès son enfance. Elle contribue à la diffusion du vaccin contre la variole dans la règion de Côme[3].
-Elle est ensuite connue sous le nom de Helena Perpenti, d'après le nom de son mari Bernardino Lena Perpenti[1],[3].
-Son invention d'une méthode de filature de l'amiante pour obtenir des produits textiles et du papier ignifuge lui vaut une reconnaissance dans le Dictionnaire des inventions, des origines et des découvertes[4].
-Dans le domaine de la botanique, elle découvre en 1817 une variété de campanule ensuite baptisée Campanula raineri, d'après l'archiduc Rainier d'Autriche (1783-1853), passionné de botanique[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née d'un famille de haut rang de la ville de Chiavenna, Maria Candida Medina Coeli s'intéresse à la médecine dès son enfance. Elle contribue à la diffusion du vaccin contre la variole dans la règion de Côme.
+Elle est ensuite connue sous le nom de Helena Perpenti, d'après le nom de son mari Bernardino Lena Perpenti,.
+Son invention d'une méthode de filature de l'amiante pour obtenir des produits textiles et du papier ignifuge lui vaut une reconnaissance dans le Dictionnaire des inventions, des origines et des découvertes.
+Dans le domaine de la botanique, elle découvre en 1817 une variété de campanule ensuite baptisée Campanula raineri, d'après l'archiduc Rainier d'Autriche (1783-1853), passionné de botanique.
 </t>
         </is>
       </c>
